--- a/metagenome/data_figures/filtered_data_1percent_change/ancombc2_results_family/fungi_ANCOMBC2_results.xlsx
+++ b/metagenome/data_figures/filtered_data_1percent_change/ancombc2_results_family/fungi_ANCOMBC2_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t xml:space="preserve">Family</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t xml:space="preserve">MI29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI30</t>
   </si>
   <si>
     <t xml:space="preserve">MI31</t>
@@ -1043,13 +1040,10 @@
       <c r="CW1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="n">
         <v>0.00174870980340163</v>
@@ -1280,84 +1274,81 @@
         <v>0.00145680549188634</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>0.00729793003312299</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.00729793003312299</v>
+        <v>0.00357739025049054</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.00357739025049054</v>
+        <v>0.00332652668767744</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.00332652668767744</v>
+        <v>0.00260330682560019</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00260330682560019</v>
+        <v>0.00570653698703661</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.00570653698703661</v>
+        <v>0.00183061810988938</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.00183061810988938</v>
+        <v>0.00340058402544828</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.00340058402544828</v>
+        <v>0.00229340160696033</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.00229340160696033</v>
+        <v>-0.111548285533213</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.0869480268831124</v>
+        <v>0.213350052447308</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.219849871989693</v>
+        <v>0.1119934170741</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.115216988716432</v>
+        <v>0.171000246927716</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.17118711739906</v>
+        <v>-0.996025377629185</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.754645889045979</v>
+        <v>1.24765932377568</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.28426645258121</v>
+        <v>0.322483668736269</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.452856451028396</v>
+        <v>0.216089681217094</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.203054938185754</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR2" t="b">
+        <v>0</v>
       </c>
       <c r="CS2" t="b">
         <v>0</v>
       </c>
       <c r="CT2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU2" t="b">
         <v>1</v>
       </c>
       <c r="CV2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="n">
         <v>0.00766741990722268</v>
@@ -1588,84 +1579,81 @@
         <v>0.018262633795194</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.0125828525855263</v>
+        <v>0.0121483835307474</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.0121483835307474</v>
+        <v>0.00720837436241166</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.00720837436241166</v>
+        <v>0.0169029871974565</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.0169029871974565</v>
+        <v>0.0105554845059855</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0105554845059855</v>
+        <v>0.0078390424581839</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.0078390424581839</v>
+        <v>0.00469446852720106</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.00469446852720106</v>
+        <v>0.0128983555491565</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0128983555491565</v>
+        <v>0.0237638653352799</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.0237638653352799</v>
+        <v>-0.0441977965663186</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0.0206107686114748</v>
+        <v>0.0181439883679976</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0.0151828431218798</v>
+        <v>0.100927719339508</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.104197467342248</v>
+        <v>0.161253659952046</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.166891377869646</v>
+        <v>-0.437915340359992</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.197804890437274</v>
+        <v>0.112518304225736</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0.0909744009288407</v>
+        <v>0.662599039331608</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.843681366794</v>
+        <v>0.910687452840107</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.927732129275174</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR3" t="b">
+        <v>0</v>
       </c>
       <c r="CS3" t="b">
         <v>0</v>
       </c>
       <c r="CT3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU3" t="b">
         <v>1</v>
       </c>
       <c r="CV3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="n">
         <v>0.000283978515082323</v>
@@ -1905,75 +1893,72 @@
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0</v>
+        <v>0.00042677161075413</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.00042677161075413</v>
+        <v>0.00046462409706561</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.00046462409706561</v>
+        <v>0</v>
       </c>
       <c r="CF4" t="n">
-        <v>0</v>
+        <v>0.00041761558207257</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.00041761558207257</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0</v>
+        <v>0.09282636790189</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.117426626551991</v>
+        <v>-0.202482590403593</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0.195887903513787</v>
+        <v>0.0836590148979041</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.0869810326276552</v>
+        <v>0.152830894982789</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.153013666702498</v>
+        <v>1.10957997790404</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.35002566656878</v>
+        <v>-1.32487996243427</v>
       </c>
       <c r="CN4" t="n">
-        <v>-1.28019874129707</v>
+        <v>0.278647091963312</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.190144913385958</v>
+        <v>0.198224081557725</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.213236814250642</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR4" t="b">
+        <v>0</v>
       </c>
       <c r="CS4" t="b">
         <v>0</v>
       </c>
       <c r="CT4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU4" t="b">
         <v>1</v>
       </c>
       <c r="CV4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="n">
         <v>0.0221204317011494</v>
@@ -2204,84 +2189,81 @@
         <v>0.0101375639899309</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.013982534257923</v>
+        <v>0.00747592832661379</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.00747592832661379</v>
+        <v>0.0117236571879372</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0117236571879372</v>
+        <v>0.0276701195151687</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0276701195151687</v>
+        <v>0.0101287128952314</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0101287128952314</v>
+        <v>0.0220636878914234</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0220636878914234</v>
+        <v>0.00869262832548715</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.00869262832548715</v>
+        <v>0.0231001076255014</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0231001076255014</v>
+        <v>0.0293012231626118</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0293012231626118</v>
+        <v>-0.0228250635276076</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.00569062704271301</v>
+        <v>-0.0303778920442103</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0.0740149123483523</v>
+        <v>0.102967218797463</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.10622869759828</v>
+        <v>0.173759753551035</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.181300341079989</v>
+        <v>-0.221673109113539</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0535695830916893</v>
+        <v>-0.174826974736057</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0.408244749609694</v>
+        <v>0.825119484213775</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.95740681975585</v>
+        <v>0.861646541071291</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.684145277613244</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR5" t="b">
+        <v>0</v>
       </c>
       <c r="CS5" t="b">
         <v>0</v>
       </c>
       <c r="CT5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU5" t="b">
         <v>1</v>
       </c>
       <c r="CV5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="n">
         <v>0.00990935555260946</v>
@@ -2512,84 +2494,81 @@
         <v>0.00629279898041636</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>0.00350063310531914</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.00350063310531914</v>
+        <v>0.0078113053035056</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.0078113053035056</v>
+        <v>0.0199709146373286</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.0199709146373286</v>
+        <v>0.00257485538488325</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.00257485538488325</v>
+        <v>0.0106387004789639</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.0106387004789639</v>
+        <v>0.00577262397842428</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.00577262397842428</v>
+        <v>0.0178858787864807</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.0178858787864807</v>
+        <v>0.0129305603760857</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.0129305603760857</v>
+        <v>-0.0300711803568489</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0.00547092170674812</v>
+        <v>-0.0139272484318777</v>
       </c>
       <c r="CJ6" t="n">
-        <v>-0.00742742888949264</v>
+        <v>0.0887203759863681</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.0920324149340423</v>
+        <v>0.154290232039159</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.154544000812874</v>
+        <v>-0.3389433376778</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0.0594455954531782</v>
+        <v>-0.0902665596377023</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0.0480602860701528</v>
+        <v>0.735518861655196</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.952741833320263</v>
+        <v>0.928295519451351</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.961785060359999</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR6" t="b">
+        <v>0</v>
       </c>
       <c r="CS6" t="b">
         <v>0</v>
       </c>
       <c r="CT6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU6" t="b">
         <v>1</v>
       </c>
       <c r="CV6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="n">
         <v>0.00642688218344203</v>
@@ -2820,84 +2799,81 @@
         <v>0.004295323409067</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0</v>
+        <v>0.00416812670590968</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.00416812670590968</v>
+        <v>0.00324242861654947</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.00324242861654947</v>
+        <v>0.0101558977319905</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0101558977319905</v>
+        <v>0.0103990015820423</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0103990015820423</v>
+        <v>0.00665961205794043</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.00665961205794043</v>
+        <v>0.00262800391235658</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.00262800391235658</v>
+        <v>0.00556025317845228</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.00556025317845228</v>
+        <v>0.00924904727017561</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.00924904727017561</v>
+        <v>-0.00177831515934534</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0228219434907555</v>
+        <v>-0.0986792752460243</v>
       </c>
       <c r="CJ7" t="n">
-        <v>-0.0921796669867488</v>
+        <v>0.0955039892105053</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.0987945193240235</v>
+        <v>0.148588699309988</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.149357963488202</v>
+        <v>-0.0186203233398519</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.231004145239118</v>
+        <v>-0.664110229810666</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0.617172762897443</v>
+        <v>0.985190352023958</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.817901353306942</v>
+        <v>0.508529340953995</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.5388734353929</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR7" t="b">
+        <v>0</v>
       </c>
       <c r="CS7" t="b">
         <v>0</v>
       </c>
       <c r="CT7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU7" t="b">
         <v>1</v>
       </c>
       <c r="CV7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" t="n">
         <v>0.00101634415924197</v>
@@ -3128,84 +3104,81 @@
         <v>0.00765949279239225</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.00818385304370775</v>
+        <v>0.00088999146745401</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.00088999146745401</v>
+        <v>0.00107187722861138</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.00107187722861138</v>
+        <v>0.00300915488355273</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.00300915488355273</v>
+        <v>0.00036986872932024</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.00036986872932024</v>
+        <v>0.00079820037188193</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.00079820037188193</v>
+        <v>0</v>
       </c>
       <c r="CF8" t="n">
-        <v>0</v>
+        <v>0.00088295865923918</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.00088295865923918</v>
+        <v>0.00045264505400532</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.00045264505400532</v>
+        <v>-0.0712128946723594</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0.0775589320259132</v>
+        <v>0.11740259705344</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.133623377878861</v>
+        <v>0.102858836189068</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.106120758807115</v>
+        <v>0.199568913232212</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.198159188587193</v>
+        <v>-0.692336189196819</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.730855422612311</v>
+        <v>0.588280986011253</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.674323400451675</v>
+        <v>0.49131119679239</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.467576955591251</v>
+        <v>0.558480674270837</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.502572683577893</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR8" t="b">
+        <v>0</v>
       </c>
       <c r="CS8" t="b">
         <v>0</v>
       </c>
       <c r="CT8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU8" t="b">
         <v>1</v>
       </c>
       <c r="CV8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -3439,16 +3412,16 @@
         <v>0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>0.00100488490182318</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.00100488490182318</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>0.00129454055262084</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.00129454055262084</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3460,60 +3433,57 @@
         <v>0</v>
       </c>
       <c r="CH9" t="n">
-        <v>0</v>
+        <v>0.268922463060837</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.293522721710938</v>
+        <v>-0.136610819398615</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.129950847991877</v>
+        <v>0.0662707572765908</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.0694942277468599</v>
+        <v>0.149233345076655</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.149170566551464</v>
+        <v>4.05793556784706</v>
       </c>
       <c r="CM9" t="n">
-        <v>4.22369930895737</v>
+        <v>-0.915417525007184</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0.871156093297027</v>
+        <v>0.00188983571184024</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.00142746588849056</v>
+        <v>0.379602848021841</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.402281698581892</v>
+        <v>0.0566950713552071</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.0428239766547169</v>
-      </c>
-      <c r="CR9" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR9" t="b">
+        <v>0</v>
       </c>
       <c r="CS9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="b">
         <v>1</v>
       </c>
-      <c r="CT9" t="b">
-        <v>0</v>
-      </c>
       <c r="CU9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="n">
         <v>0.00366182822079834</v>
@@ -3744,84 +3714,81 @@
         <v>0.00768953001902905</v>
       </c>
       <c r="BZ10" t="n">
-        <v>3.41061004411568</v>
+        <v>0.00620027388992967</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.00620027388992967</v>
+        <v>0.00679302193632473</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.00679302193632473</v>
+        <v>0.00337354473273295</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.00337354473273295</v>
+        <v>0.00958813552160946</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.00958813552160946</v>
+        <v>0.00818453217138652</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.00818453217138652</v>
+        <v>0.0114217093113959</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0114217093113959</v>
+        <v>0.00326933341393975</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.00326933341393975</v>
+        <v>0.0051752417841276</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0051752417841276</v>
+        <v>0.0209807271283705</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.033158872498576</v>
+        <v>-0.119284068662552</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0163320855829739</v>
+        <v>0.149173031428524</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.152250186342137</v>
+        <v>0.200426524560133</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.239289407023351</v>
+        <v>0.140646918061884</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0.217791999440062</v>
+        <v>-0.595151110484699</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.0682524386939541</v>
+        <v>0.888516167554744</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.828159929289113</v>
+        <v>0.553487564315635</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.945759347118909</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR10" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR10" t="b">
+        <v>0</v>
       </c>
       <c r="CS10" t="b">
         <v>0</v>
       </c>
       <c r="CT10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" t="n">
         <v>0.00419989277569119</v>
@@ -4052,84 +4019,81 @@
         <v>0.00124654490542854</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.0117544695549241</v>
+        <v>0.00114215571656598</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.00114215571656598</v>
+        <v>0.00133984653576423</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.00133984653576423</v>
+        <v>0.00307968195113601</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.00307968195113601</v>
+        <v>0.00116650906939461</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.00116650906939461</v>
+        <v>0.00169170825085428</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.00169170825085428</v>
+        <v>0.00214508011649619</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.00214508011649619</v>
+        <v>0.00063238930999563</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.00063238930999563</v>
+        <v>0.00267060581863146</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.00267060581863146</v>
+        <v>-0.0125957628390939</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0.00919964352210261</v>
+        <v>-0.0629020026052799</v>
       </c>
       <c r="CJ11" t="n">
-        <v>-0.0511590463670773</v>
+        <v>0.105942442797458</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.109191590711288</v>
+        <v>0.172411603031799</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.172151389302817</v>
+        <v>-0.118892509050171</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0.0842523079128617</v>
+        <v>-0.364836249412277</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0.297174751677941</v>
+        <v>0.905662323223942</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.933066309640516</v>
+        <v>0.716208505469219</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.767103365423601</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR11" t="b">
+        <v>0</v>
       </c>
       <c r="CS11" t="b">
         <v>0</v>
       </c>
       <c r="CT11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU11" t="b">
         <v>1</v>
       </c>
       <c r="CV11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" t="n">
         <v>0.00783182852121774</v>
@@ -4360,84 +4324,81 @@
         <v>0.00563197999440606</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>0.00734242960649571</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.00734242960649571</v>
+        <v>0.00828025159102308</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.00828025159102308</v>
+        <v>0.0167971965960816</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.0167971965960816</v>
+        <v>0.00900488098691217</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.00900488098691217</v>
+        <v>0.00763651400561685</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.00763651400561685</v>
+        <v>0.00498646896190737</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.00498646896190737</v>
+        <v>0.00992731897955433</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.00992731897955433</v>
+        <v>0.0131568829030883</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.0131568829030883</v>
+        <v>-0.097018170907114</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0.0724179122570132</v>
+        <v>0.138060513898453</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.144560333440838</v>
+        <v>0.111117279115929</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.114344571709213</v>
+        <v>0.168564695539905</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.168829154926028</v>
+        <v>-0.873115069762418</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0.633330565452445</v>
+        <v>0.81903576224103</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.856252188812867</v>
+        <v>0.385150038466252</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.528280282342664</v>
+        <v>0.415140060673379</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.394353584083579</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR12" t="b">
+        <v>0</v>
       </c>
       <c r="CS12" t="b">
         <v>0</v>
       </c>
       <c r="CT12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU12" t="b">
         <v>1</v>
       </c>
       <c r="CV12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" t="n">
         <v>0.00161419366467846</v>
@@ -4674,78 +4635,75 @@
         <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0</v>
+        <v>0.00045842593929123</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.00045842593929123</v>
+        <v>0.00045522305147106</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.00045522305147106</v>
+        <v>0.00039314346674781</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.00039314346674781</v>
+        <v>0</v>
       </c>
       <c r="CF13" t="n">
         <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>0.00040738054860477</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.00040738054860477</v>
+        <v>0.13971165168925</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.164311910339351</v>
+        <v>-0.300636929736757</v>
       </c>
       <c r="CJ13" t="n">
-        <v>-0.29425557125211</v>
+        <v>0.08832085045795</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0916339142371183</v>
+        <v>0.159725029857386</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.159700787931784</v>
+        <v>1.58186488201636</v>
       </c>
       <c r="CM13" t="n">
-        <v>1.79313425282877</v>
+        <v>-1.88221551753778</v>
       </c>
       <c r="CN13" t="n">
-        <v>-1.84254301473955</v>
+        <v>0.121969115432331</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0809138232606063</v>
+        <v>0.0674813320902278</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.0732082307673136</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR13" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR13" t="b">
+        <v>0</v>
       </c>
       <c r="CS13" t="b">
         <v>0</v>
       </c>
       <c r="CT13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU13" t="b">
         <v>1</v>
       </c>
       <c r="CV13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" t="n">
         <v>0.00103129039687791</v>
@@ -4976,84 +4934,81 @@
         <v>0.00067583759932872</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>0.00048949530709971</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.00048949530709971</v>
+        <v>0.00041535242608689</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.00041535242608689</v>
+        <v>0.00122246917144329</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.00122246917144329</v>
+        <v>0.00034141728860328</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.00034141728860328</v>
+        <v>0.00060758535770118</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.00060758535770118</v>
+        <v>0.0005952316553628</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.0005952316553628</v>
+        <v>0.00058466181490161</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.00058466181490161</v>
+        <v>0.0020067264060903</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.0020067264060903</v>
+        <v>0.133941295393267</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.158541554043368</v>
+        <v>-0.281235857432939</v>
       </c>
       <c r="CJ14" t="n">
-        <v>-0.274736249173663</v>
+        <v>0.106693260971857</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.109939261198795</v>
+        <v>0.186179808345964</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.185449093015654</v>
+        <v>1.25538664928985</v>
       </c>
       <c r="CM14" t="n">
-        <v>1.4420831313091</v>
+        <v>-1.51056046265951</v>
       </c>
       <c r="CN14" t="n">
-        <v>-1.48146450708428</v>
+        <v>0.214205704974514</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.154478663709244</v>
+        <v>0.136149393786348</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.143715759479588</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR14" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR14" t="b">
+        <v>0</v>
       </c>
       <c r="CS14" t="b">
         <v>0</v>
       </c>
       <c r="CT14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU14" t="b">
         <v>1</v>
       </c>
       <c r="CV14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" t="n">
         <v>0.0019280646550326</v>
@@ -5284,84 +5239,81 @@
         <v>0.00051063285282615</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.00898367114222022</v>
+        <v>0.00115698890769021</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.00115698890769021</v>
+        <v>0.00182219128863936</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.00182219128863936</v>
+        <v>0.0015868590206235</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.0015868590206235</v>
+        <v>0.00547690233801135</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.00547690233801135</v>
+        <v>0.0004884509738382</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.0004884509738382</v>
+        <v>0.00205523382889425</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.00205523382889425</v>
+        <v>0.00107386863961524</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.00107386863961524</v>
+        <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0</v>
+        <v>-0.0125468682285564</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0.0114141783263695</v>
+        <v>-0.00154150804907144</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.00785965325720018</v>
+        <v>0.106510200747508</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.10975696947062</v>
+        <v>0.20201685056281</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.200419161402564</v>
+        <v>-0.11779968623193</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0.103995020830316</v>
+        <v>-0.00763059143223384</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.0392160769568994</v>
+        <v>0.906563743706103</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.917466506201277</v>
+        <v>0.993933433139794</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.968828178552532</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>0.968828178552532</v>
+        <v>0.993933433139794</v>
+      </c>
+      <c r="CR15" t="b">
+        <v>0</v>
       </c>
       <c r="CS15" t="b">
         <v>0</v>
       </c>
       <c r="CT15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU15" t="b">
         <v>1</v>
       </c>
       <c r="CV15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW15" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" t="n">
         <v>0.00270526901209999</v>
@@ -5592,84 +5544,81 @@
         <v>0.00357442996978303</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0</v>
+        <v>0.00278863993135591</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.00278863993135591</v>
+        <v>0.00383196109228573</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.00383196109228573</v>
+        <v>0.00895693758307498</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.00895693758307498</v>
+        <v>0.0028451440716942</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.0028451440716942</v>
+        <v>0.00389569435231935</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.00389569435231935</v>
+        <v>0.00379600565118172</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.00379600565118172</v>
+        <v>0.00653866682787952</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.00653866682787952</v>
+        <v>0.00470750856165544</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.00470750856165544</v>
+        <v>-0.0247545853380737</v>
       </c>
       <c r="CI16" t="n">
-        <v>-0.000154326687972867</v>
+        <v>-0.0199562865607215</v>
       </c>
       <c r="CJ16" t="n">
-        <v>-0.0134564670183367</v>
+        <v>0.0974459063160485</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.100729248608925</v>
+        <v>0.16036517351585</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.160575645895236</v>
+        <v>-0.25403412286799</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0.00153209410478212</v>
+        <v>-0.124442770978258</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0.0838014192209201</v>
+        <v>0.800112949730261</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.998781333283918</v>
+        <v>0.901273020316296</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.93342108438128</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR16" t="b">
+        <v>0</v>
       </c>
       <c r="CS16" t="b">
         <v>0</v>
       </c>
       <c r="CT16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU16" t="b">
         <v>1</v>
       </c>
       <c r="CV16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW16" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" t="n">
         <v>0.00777204357067407</v>
@@ -5900,84 +5849,81 @@
         <v>0.00391985807610658</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0</v>
+        <v>0.00688260068164443</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.00688260068164443</v>
+        <v>0.00306824856690011</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.00306824856690011</v>
+        <v>0.00494864924209259</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.00494864924209259</v>
+        <v>0.00822246636719627</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.00822246636719627</v>
+        <v>0.0019776307721254</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0019776307721254</v>
+        <v>0.0105007848634761</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.0105007848634761</v>
+        <v>0.0060136643818454</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.0060136643818454</v>
+        <v>0.00763461324422325</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.00763461324422325</v>
+        <v>-0.000316859778349264</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.0242833988717515</v>
+        <v>-0.056584509717173</v>
       </c>
       <c r="CJ17" t="n">
-        <v>-0.0500846901747881</v>
+        <v>0.113758281652273</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.116974358176316</v>
+        <v>0.181815144724946</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.1815189651764</v>
+        <v>-0.0027853776775375</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.207595914611894</v>
+        <v>-0.311220002067348</v>
       </c>
       <c r="CN17" t="n">
-        <v>-0.275919874962464</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.836078711819516</v>
+        <v>0.756453138599942</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.783330103053574</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR17" t="b">
+        <v>0</v>
       </c>
       <c r="CS17" t="b">
         <v>0</v>
       </c>
       <c r="CT17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU17" t="b">
         <v>1</v>
       </c>
       <c r="CV17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW17" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" t="n">
         <v>0.00310881742826964</v>
@@ -6208,84 +6154,81 @@
         <v>0.00249308981085708</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0</v>
+        <v>0.00192831484615038</v>
       </c>
       <c r="CA18" t="n">
-        <v>0.00192831484615038</v>
+        <v>0.00336301480476828</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.00336301480476828</v>
+        <v>0.00747586916382636</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.00747586916382636</v>
+        <v>0.00140834631548862</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.00140834631548862</v>
+        <v>0.00309749398043739</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.00309749398043739</v>
+        <v>0.00097707837767103</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.00097707837767103</v>
+        <v>0.00544093444071726</v>
       </c>
       <c r="CG18" t="n">
-        <v>0.00544093444071726</v>
+        <v>0.00416433449684904</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.00416433449684904</v>
+        <v>-0.031823902495183</v>
       </c>
       <c r="CI18" t="n">
-        <v>-0.00722364384508224</v>
+        <v>-0.0329853647983694</v>
       </c>
       <c r="CJ18" t="n">
-        <v>-0.0264857565390938</v>
+        <v>0.0984485361141886</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.101728045732936</v>
+        <v>0.159548876250903</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.159851118752115</v>
+        <v>-0.323254197078879</v>
       </c>
       <c r="CM18" t="n">
-        <v>-0.0710093641634114</v>
+        <v>-0.206741442330796</v>
       </c>
       <c r="CN18" t="n">
-        <v>-0.165690154350223</v>
+        <v>0.747356848278605</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.943569758440711</v>
+        <v>0.83674372245955</v>
       </c>
       <c r="CP18" t="n">
-        <v>0.868824085211987</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR18" t="b">
+        <v>0</v>
       </c>
       <c r="CS18" t="b">
         <v>0</v>
       </c>
       <c r="CT18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU18" t="b">
         <v>1</v>
       </c>
       <c r="CV18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW18" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX18" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" t="n">
         <v>0.0160522592209692</v>
@@ -6516,84 +6459,81 @@
         <v>0.00983719172356257</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0</v>
+        <v>0.00864775042542827</v>
       </c>
       <c r="CA19" t="n">
-        <v>0.00864775042542827</v>
+        <v>0.00928513649284628</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.00928513649284628</v>
+        <v>0.0275878379363216</v>
       </c>
       <c r="CC19" t="n">
-        <v>0.0275878379363216</v>
+        <v>0.0111529647610413</v>
       </c>
       <c r="CD19" t="n">
-        <v>0.0111529647610413</v>
+        <v>0.0175127544278577</v>
       </c>
       <c r="CE19" t="n">
-        <v>0.0175127544278577</v>
+        <v>0.0115115555989979</v>
       </c>
       <c r="CF19" t="n">
-        <v>0.0115115555989979</v>
+        <v>0.0244842049832278</v>
       </c>
       <c r="CG19" t="n">
-        <v>0.0244842049832278</v>
+        <v>0.0233263084497415</v>
       </c>
       <c r="CH19" t="n">
-        <v>0.0233263084497415</v>
+        <v>-0.0277486613022989</v>
       </c>
       <c r="CI19" t="n">
-        <v>-0.00314840265219814</v>
+        <v>-0.0191999943935591</v>
       </c>
       <c r="CJ19" t="n">
-        <v>-0.0127001748511742</v>
+        <v>0.101497456508251</v>
       </c>
       <c r="CK19" t="n">
-        <v>0.104764913215963</v>
+        <v>0.157203605572745</v>
       </c>
       <c r="CL19" t="n">
-        <v>0.157719135501234</v>
+        <v>-0.273392676594247</v>
       </c>
       <c r="CM19" t="n">
-        <v>-0.0300520714001644</v>
+        <v>-0.122134567611265</v>
       </c>
       <c r="CN19" t="n">
-        <v>-0.0805239948267078</v>
+        <v>0.785238793549643</v>
       </c>
       <c r="CO19" t="n">
-        <v>0.976098548583601</v>
+        <v>0.903091270716288</v>
       </c>
       <c r="CP19" t="n">
-        <v>0.936016720300592</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ19" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR19" t="b">
+        <v>0</v>
       </c>
       <c r="CS19" t="b">
         <v>0</v>
       </c>
       <c r="CT19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU19" t="b">
         <v>1</v>
       </c>
       <c r="CV19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW19" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" t="n">
         <v>0.00068752693125192</v>
@@ -6824,84 +6764,81 @@
         <v>0</v>
       </c>
       <c r="BZ20" t="n">
-        <v>0</v>
+        <v>0.00075649274733591</v>
       </c>
       <c r="CA20" t="n">
-        <v>0.00075649274733591</v>
+        <v>0.00163461277363239</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.00163461277363239</v>
+        <v>0.00043491691676346</v>
       </c>
       <c r="CC20" t="n">
-        <v>0.00043491691676346</v>
+        <v>0.00093889754365908</v>
       </c>
       <c r="CD20" t="n">
-        <v>0.00093889754365908</v>
+        <v>0.00061949879608746</v>
       </c>
       <c r="CE20" t="n">
-        <v>0.00061949879608746</v>
+        <v>0.00068507794296474</v>
       </c>
       <c r="CF20" t="n">
-        <v>0.00068507794296474</v>
+        <v>0.00097841364942723</v>
       </c>
       <c r="CG20" t="n">
-        <v>0.00097841364942723</v>
+        <v>0.00096564278187804</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.00096564278187804</v>
+        <v>0.0475852243832534</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.0721854830333542</v>
+        <v>0.0100196808423416</v>
       </c>
       <c r="CJ20" t="n">
-        <v>0.0166726121034933</v>
+        <v>0.0781396537515795</v>
       </c>
       <c r="CK20" t="n">
-        <v>0.0814616724248768</v>
+        <v>0.157482142552333</v>
       </c>
       <c r="CL20" t="n">
-        <v>0.157293316942678</v>
+        <v>0.608976647561501</v>
       </c>
       <c r="CM20" t="n">
-        <v>0.886128173957182</v>
+        <v>0.0636242349764323</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.105996951603285</v>
+        <v>0.545535854763937</v>
       </c>
       <c r="CO20" t="n">
-        <v>0.380157676089946</v>
+        <v>0.949545112966469</v>
       </c>
       <c r="CP20" t="n">
-        <v>0.916045669654923</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR20" t="b">
+        <v>0</v>
       </c>
       <c r="CS20" t="b">
         <v>0</v>
       </c>
       <c r="CT20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU20" t="b">
         <v>1</v>
       </c>
       <c r="CV20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW20" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" t="n">
         <v>0.00422978525096299</v>
@@ -7132,84 +7069,81 @@
         <v>0.0101826198298861</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0</v>
+        <v>0.00415329351478543</v>
       </c>
       <c r="CA21" t="n">
-        <v>0.00415329351478543</v>
+        <v>0.0086420101556794</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.0086420101556794</v>
+        <v>0.00561865638413361</v>
       </c>
       <c r="CC21" t="n">
-        <v>0.00561865638413361</v>
+        <v>0.00974461844555266</v>
       </c>
       <c r="CD21" t="n">
-        <v>0.00974461844555266</v>
+        <v>0.00509895162933542</v>
       </c>
       <c r="CE21" t="n">
-        <v>0.00509895162933542</v>
+        <v>0.00708662593460257</v>
       </c>
       <c r="CF21" t="n">
-        <v>0.00708662593460257</v>
+        <v>0.00571536753750781</v>
       </c>
       <c r="CG21" t="n">
-        <v>0.00571536753750781</v>
+        <v>0.00648791244074307</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.00648791244074307</v>
+        <v>-0.0325125459015821</v>
       </c>
       <c r="CI21" t="n">
-        <v>-0.00791228725148135</v>
+        <v>0.0273370632849106</v>
       </c>
       <c r="CJ21" t="n">
-        <v>0.0338368828272956</v>
+        <v>0.106110348776726</v>
       </c>
       <c r="CK21" t="n">
-        <v>0.109358793783938</v>
+        <v>0.161966534459075</v>
       </c>
       <c r="CL21" t="n">
-        <v>0.162408833610656</v>
+        <v>-0.306403157433719</v>
       </c>
       <c r="CM21" t="n">
-        <v>-0.0723516324358311</v>
+        <v>0.16878217081207</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.208343857135339</v>
+        <v>0.760093731351832</v>
       </c>
       <c r="CO21" t="n">
-        <v>0.942502658701212</v>
+        <v>0.8663939992527</v>
       </c>
       <c r="CP21" t="n">
-        <v>0.835490016535953</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ21" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR21" t="b">
+        <v>0</v>
       </c>
       <c r="CS21" t="b">
         <v>0</v>
       </c>
       <c r="CT21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU21" t="b">
         <v>1</v>
       </c>
       <c r="CV21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW21" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" t="n">
         <v>0.00109107534742155</v>
@@ -7440,84 +7374,81 @@
         <v>0</v>
       </c>
       <c r="BZ22" t="n">
-        <v>0</v>
+        <v>0.00275897354910747</v>
       </c>
       <c r="CA22" t="n">
-        <v>0.00275897354910747</v>
+        <v>0.00367117950799404</v>
       </c>
       <c r="CB22" t="n">
-        <v>0.00367117950799404</v>
+        <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>0</v>
+        <v>0.00103847758616838</v>
       </c>
       <c r="CD22" t="n">
-        <v>0.00103847758616838</v>
+        <v>0.00109603633153938</v>
       </c>
       <c r="CE22" t="n">
-        <v>0.00109603633153938</v>
+        <v>0.00110061702312369</v>
       </c>
       <c r="CF22" t="n">
-        <v>0.00110061702312369</v>
+        <v>0.00145568860036734</v>
       </c>
       <c r="CG22" t="n">
-        <v>0.00145568860036734</v>
+        <v>0.00081476109720957</v>
       </c>
       <c r="CH22" t="n">
-        <v>0.00081476109720957</v>
+        <v>0.045792820140603</v>
       </c>
       <c r="CI22" t="n">
-        <v>0.0703930787907039</v>
+        <v>-0.0486973715031614</v>
       </c>
       <c r="CJ22" t="n">
-        <v>-0.0420559588650781</v>
+        <v>0.0923774046350255</v>
       </c>
       <c r="CK22" t="n">
-        <v>0.0956786782419294</v>
+        <v>0.197979603310059</v>
       </c>
       <c r="CL22" t="n">
-        <v>0.196351475954386</v>
+        <v>0.495714512889014</v>
       </c>
       <c r="CM22" t="n">
-        <v>0.735723779677544</v>
+        <v>-0.245971659145593</v>
       </c>
       <c r="CN22" t="n">
-        <v>-0.214187128773344</v>
+        <v>0.621906740611635</v>
       </c>
       <c r="CO22" t="n">
-        <v>0.46476530289149</v>
+        <v>0.806543674465849</v>
       </c>
       <c r="CP22" t="n">
-        <v>0.831127382741176</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ22" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR22" t="b">
+        <v>0</v>
       </c>
       <c r="CS22" t="b">
         <v>0</v>
       </c>
       <c r="CT22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU22" t="b">
         <v>1</v>
       </c>
       <c r="CV22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW22" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" t="n">
         <v>0.00705462416415033</v>
@@ -7748,84 +7679,81 @@
         <v>0.00729904607275025</v>
       </c>
       <c r="BZ23" t="n">
-        <v>0</v>
+        <v>0.00716443131300488</v>
       </c>
       <c r="CA23" t="n">
-        <v>0.00716443131300488</v>
+        <v>0.00584173089593213</v>
       </c>
       <c r="CB23" t="n">
-        <v>0.00584173089593213</v>
+        <v>0.0223923439576875</v>
       </c>
       <c r="CC23" t="n">
-        <v>0.0223923439576875</v>
+        <v>0.00453800479435225</v>
       </c>
       <c r="CD23" t="n">
-        <v>0.00453800479435225</v>
+        <v>0.0180250322784685</v>
       </c>
       <c r="CE23" t="n">
-        <v>0.0180250322784685</v>
+        <v>0.00514369996521074</v>
       </c>
       <c r="CF23" t="n">
-        <v>0.00514369996521074</v>
+        <v>0.0150102972070665</v>
       </c>
       <c r="CG23" t="n">
-        <v>0.0150102972070665</v>
+        <v>0.0196598835122983</v>
       </c>
       <c r="CH23" t="n">
-        <v>0.0196598835122983</v>
+        <v>-0.11281528719519</v>
       </c>
       <c r="CI23" t="n">
-        <v>-0.0882150285450894</v>
+        <v>0.198998084577346</v>
       </c>
       <c r="CJ23" t="n">
-        <v>0.205497904119731</v>
+        <v>0.109462401862249</v>
       </c>
       <c r="CK23" t="n">
-        <v>0.112696714522295</v>
+        <v>0.165032248825673</v>
       </c>
       <c r="CL23" t="n">
-        <v>0.165415223094641</v>
+        <v>-1.03063047471917</v>
       </c>
       <c r="CM23" t="n">
-        <v>-0.782764865142878</v>
+        <v>1.20581332432518</v>
       </c>
       <c r="CN23" t="n">
-        <v>1.24231555158716</v>
+        <v>0.305781776547357</v>
       </c>
       <c r="CO23" t="n">
-        <v>0.436047749892562</v>
+        <v>0.23139999590204</v>
       </c>
       <c r="CP23" t="n">
-        <v>0.217704897539044</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ23" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR23" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR23" t="b">
+        <v>0</v>
       </c>
       <c r="CS23" t="b">
         <v>0</v>
       </c>
       <c r="CT23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU23" t="b">
         <v>1</v>
       </c>
       <c r="CV23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW23" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" t="n">
         <v>0.0391890350813605</v>
@@ -8056,84 +7984,81 @@
         <v>0.0502823173900572</v>
       </c>
       <c r="BZ24" t="n">
-        <v>0.181830075217179</v>
+        <v>0.0497505230306798</v>
       </c>
       <c r="CA24" t="n">
-        <v>0.0497505230306798</v>
+        <v>0.0371003505753121</v>
       </c>
       <c r="CB24" t="n">
-        <v>0.0371003505753121</v>
+        <v>0.0289396067316674</v>
       </c>
       <c r="CC24" t="n">
-        <v>0.0289396067316674</v>
+        <v>0.0407851402677364</v>
       </c>
       <c r="CD24" t="n">
-        <v>0.0407851402677364</v>
+        <v>0.0424237540936062</v>
       </c>
       <c r="CE24" t="n">
-        <v>0.0424237540936062</v>
+        <v>0.086005358806952</v>
       </c>
       <c r="CF24" t="n">
-        <v>0.086005358806952</v>
+        <v>0.0353302782433417</v>
       </c>
       <c r="CG24" t="n">
-        <v>0.0353302782433417</v>
+        <v>0.034129437072002</v>
       </c>
       <c r="CH24" t="n">
-        <v>0.034129437072002</v>
+        <v>-0.0268454796274592</v>
       </c>
       <c r="CI24" t="n">
-        <v>-0.0188775674149867</v>
+        <v>-0.0212504608986014</v>
       </c>
       <c r="CJ24" t="n">
-        <v>-0.0190597405350764</v>
+        <v>0.120403228627228</v>
       </c>
       <c r="CK24" t="n">
-        <v>0.123591281125755</v>
+        <v>0.176771004231652</v>
       </c>
       <c r="CL24" t="n">
-        <v>0.176794820472926</v>
+        <v>-0.222963120952293</v>
       </c>
       <c r="CM24" t="n">
-        <v>-0.152741902527725</v>
+        <v>-0.120214630170644</v>
       </c>
       <c r="CN24" t="n">
-        <v>-0.107807120616382</v>
+        <v>0.824118679128965</v>
       </c>
       <c r="CO24" t="n">
-        <v>0.878972525518297</v>
+        <v>0.904607189757923</v>
       </c>
       <c r="CP24" t="n">
-        <v>0.91440887477612</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ24" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR24" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR24" t="b">
+        <v>0</v>
       </c>
       <c r="CS24" t="b">
         <v>0</v>
       </c>
       <c r="CT24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU24" t="b">
         <v>1</v>
       </c>
       <c r="CV24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW24" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX24" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" t="n">
         <v>0.00044838712907733</v>
@@ -8367,81 +8292,78 @@
         <v>0</v>
       </c>
       <c r="CA25" t="n">
-        <v>0</v>
+        <v>0.00148722965469831</v>
       </c>
       <c r="CB25" t="n">
-        <v>0.00148722965469831</v>
+        <v>0.00082281578847144</v>
       </c>
       <c r="CC25" t="n">
-        <v>0.00082281578847144</v>
+        <v>0.00069706029756507</v>
       </c>
       <c r="CD25" t="n">
-        <v>0.00069706029756507</v>
+        <v>0.00067906598801895</v>
       </c>
       <c r="CE25" t="n">
-        <v>0.00067906598801895</v>
+        <v>0</v>
       </c>
       <c r="CF25" t="n">
         <v>0</v>
       </c>
       <c r="CG25" t="n">
-        <v>0</v>
+        <v>0.00141828783588336</v>
       </c>
       <c r="CH25" t="n">
-        <v>0.00141828783588336</v>
+        <v>-0.0805212140685969</v>
       </c>
       <c r="CI25" t="n">
-        <v>-0.055920955418496</v>
+        <v>0.118305962662851</v>
       </c>
       <c r="CJ25" t="n">
-        <v>0.124972584623777</v>
+        <v>0.111654289813478</v>
       </c>
       <c r="CK25" t="n">
-        <v>0.114879301887555</v>
+        <v>0.184323288639229</v>
       </c>
       <c r="CL25" t="n">
-        <v>0.183828676279696</v>
+        <v>-0.721165431288937</v>
       </c>
       <c r="CM25" t="n">
-        <v>-0.486780076999702</v>
+        <v>0.641839474199098</v>
       </c>
       <c r="CN25" t="n">
-        <v>0.679831825768201</v>
+        <v>0.473918579581934</v>
       </c>
       <c r="CO25" t="n">
-        <v>0.628384201828197</v>
+        <v>0.523692777876838</v>
       </c>
       <c r="CP25" t="n">
-        <v>0.499515090822412</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ25" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR25" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR25" t="b">
+        <v>0</v>
       </c>
       <c r="CS25" t="b">
         <v>0</v>
       </c>
       <c r="CT25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU25" t="b">
         <v>1</v>
       </c>
       <c r="CV25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW25" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" t="n">
         <v>0.103129039687791</v>
@@ -8672,84 +8594,81 @@
         <v>0.122026233212131</v>
       </c>
       <c r="BZ26" t="n">
-        <v>0.0935215876617775</v>
+        <v>0.120638343413393</v>
       </c>
       <c r="CA26" t="n">
-        <v>0.120638343413393</v>
+        <v>0.119876069554828</v>
       </c>
       <c r="CB26" t="n">
-        <v>0.119876069554828</v>
+        <v>0.124256938570454</v>
       </c>
       <c r="CC26" t="n">
-        <v>0.124256938570454</v>
+        <v>0.150067124061511</v>
       </c>
       <c r="CD26" t="n">
-        <v>0.150067124061511</v>
+        <v>0.122482060049527</v>
       </c>
       <c r="CE26" t="n">
-        <v>0.122482060049527</v>
+        <v>0.0977302993390046</v>
       </c>
       <c r="CF26" t="n">
-        <v>0.0977302993390046</v>
+        <v>0.132873346341727</v>
       </c>
       <c r="CG26" t="n">
-        <v>0.132873346341727</v>
+        <v>0.106552645712855</v>
       </c>
       <c r="CH26" t="n">
-        <v>0.106552645712855</v>
+        <v>-0.0855186183936563</v>
       </c>
       <c r="CI26" t="n">
-        <v>-0.059005888213227</v>
+        <v>0.111953421705738</v>
       </c>
       <c r="CJ26" t="n">
-        <v>0.0707009770399346</v>
+        <v>0.0961788343652989</v>
       </c>
       <c r="CK26" t="n">
-        <v>0.0994669050620091</v>
+        <v>0.146399971134243</v>
       </c>
       <c r="CL26" t="n">
-        <v>0.156048183332359</v>
+        <v>-0.889162558041057</v>
       </c>
       <c r="CM26" t="n">
-        <v>-0.593221314933262</v>
+        <v>0.764709315434776</v>
       </c>
       <c r="CN26" t="n">
-        <v>0.45307145222801</v>
+        <v>0.376516782705062</v>
       </c>
       <c r="CO26" t="n">
-        <v>0.55464612996795</v>
+        <v>0.446639820308885</v>
       </c>
       <c r="CP26" t="n">
-        <v>0.65167949884041</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ26" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR26" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR26" t="b">
+        <v>0</v>
       </c>
       <c r="CS26" t="b">
         <v>0</v>
       </c>
       <c r="CT26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU26" t="b">
         <v>1</v>
       </c>
       <c r="CV26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW26" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" t="n">
         <v>0.00041849465380551</v>
@@ -8980,84 +8899,81 @@
         <v>0</v>
       </c>
       <c r="BZ27" t="n">
-        <v>0</v>
+        <v>0.00134982039230526</v>
       </c>
       <c r="CA27" t="n">
-        <v>0.00134982039230526</v>
+        <v>0.00121926034754547</v>
       </c>
       <c r="CB27" t="n">
-        <v>0.00121926034754547</v>
+        <v>0.00105790601374899</v>
       </c>
       <c r="CC27" t="n">
-        <v>0.00105790601374899</v>
+        <v>0.00149370063763944</v>
       </c>
       <c r="CD27" t="n">
-        <v>0.00149370063763944</v>
+        <v>0.00116751696185718</v>
       </c>
       <c r="CE27" t="n">
-        <v>0.00116751696185718</v>
+        <v>0</v>
       </c>
       <c r="CF27" t="n">
         <v>0</v>
       </c>
       <c r="CG27" t="n">
-        <v>0</v>
+        <v>0.00036211604320425</v>
       </c>
       <c r="CH27" t="n">
-        <v>0.00036211604320425</v>
+        <v>-0.0479703008796941</v>
       </c>
       <c r="CI27" t="n">
-        <v>-0.0233700422295933</v>
+        <v>0.0952917197341271</v>
       </c>
       <c r="CJ27" t="n">
-        <v>0.101958008597677</v>
+        <v>0.100484765999802</v>
       </c>
       <c r="CK27" t="n">
-        <v>0.103756284146312</v>
+        <v>0.182084616501256</v>
       </c>
       <c r="CL27" t="n">
-        <v>0.181356091619793</v>
+        <v>-0.477388790254921</v>
       </c>
       <c r="CM27" t="n">
-        <v>-0.225239776288036</v>
+        <v>0.523337564507926</v>
       </c>
       <c r="CN27" t="n">
-        <v>0.562197870978764</v>
+        <v>0.634943288925387</v>
       </c>
       <c r="CO27" t="n">
-        <v>0.822612692964852</v>
+        <v>0.602804201113621</v>
       </c>
       <c r="CP27" t="n">
-        <v>0.576224756762341</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ27" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR27" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR27" t="b">
+        <v>0</v>
       </c>
       <c r="CS27" t="b">
         <v>0</v>
       </c>
       <c r="CT27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU27" t="b">
         <v>1</v>
       </c>
       <c r="CV27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW27" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" t="n">
         <v>0.00106118287214973</v>
@@ -9288,84 +9204,81 @@
         <v>0.00033040949300514</v>
       </c>
       <c r="BZ28" t="n">
-        <v>0</v>
+        <v>0.00121632167218716</v>
       </c>
       <c r="CA28" t="n">
-        <v>0.00121632167218716</v>
+        <v>0.00242512222973328</v>
       </c>
       <c r="CB28" t="n">
-        <v>0.00242512222973328</v>
+        <v>0.00106966052501289</v>
       </c>
       <c r="CC28" t="n">
-        <v>0.00106966052501289</v>
+        <v>0.00032719156824483</v>
       </c>
       <c r="CD28" t="n">
-        <v>0.00032719156824483</v>
+        <v>0.00208485171760209</v>
       </c>
       <c r="CE28" t="n">
-        <v>0.00208485171760209</v>
+        <v>0.00138138667187973</v>
       </c>
       <c r="CF28" t="n">
-        <v>0.00138138667187973</v>
+        <v>0.00149148422168784</v>
       </c>
       <c r="CG28" t="n">
-        <v>0.00149148422168784</v>
+        <v>0.00194637373222293</v>
       </c>
       <c r="CH28" t="n">
-        <v>0.00194637373222293</v>
+        <v>-0.0656089449358577</v>
       </c>
       <c r="CI28" t="n">
-        <v>-0.0410086862857569</v>
+        <v>0.137464032662034</v>
       </c>
       <c r="CJ28" t="n">
-        <v>0.143967032565619</v>
+        <v>0.0998786384450054</v>
       </c>
       <c r="CK28" t="n">
-        <v>0.103152561615999</v>
+        <v>0.172490944549771</v>
       </c>
       <c r="CL28" t="n">
-        <v>0.172180565432774</v>
+        <v>-0.656886657220332</v>
       </c>
       <c r="CM28" t="n">
-        <v>-0.397553736362048</v>
+        <v>0.796934778349306</v>
       </c>
       <c r="CN28" t="n">
-        <v>0.836139852391354</v>
+        <v>0.513503903362852</v>
       </c>
       <c r="CO28" t="n">
-        <v>0.692222949736355</v>
+        <v>0.428304006077394</v>
       </c>
       <c r="CP28" t="n">
-        <v>0.406048402722132</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ28" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR28" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR28" t="b">
+        <v>0</v>
       </c>
       <c r="CS28" t="b">
         <v>0</v>
       </c>
       <c r="CT28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU28" t="b">
         <v>1</v>
       </c>
       <c r="CV28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW28" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" t="n">
         <v>0.0016739786152221</v>
@@ -9596,84 +9509,81 @@
         <v>0.00154691717179686</v>
       </c>
       <c r="BZ29" t="n">
-        <v>0</v>
+        <v>0.0014536527301749</v>
       </c>
       <c r="CA29" t="n">
-        <v>0.0014536527301749</v>
+        <v>0.00282707619046257</v>
       </c>
       <c r="CB29" t="n">
-        <v>0.00282707619046257</v>
+        <v>0.00195124886980374</v>
       </c>
       <c r="CC29" t="n">
-        <v>0.00195124886980374</v>
+        <v>0.00079664034007437</v>
       </c>
       <c r="CD29" t="n">
-        <v>0.00079664034007437</v>
+        <v>0.00035740315158891</v>
       </c>
       <c r="CE29" t="n">
-        <v>0.00035740315158891</v>
+        <v>0.00189800282559087</v>
       </c>
       <c r="CF29" t="n">
-        <v>0.00189800282559087</v>
+        <v>0.00126477861999129</v>
       </c>
       <c r="CG29" t="n">
-        <v>0.00126477861999129</v>
+        <v>0.00182566838448816</v>
       </c>
       <c r="CH29" t="n">
-        <v>0.00182566838448816</v>
+        <v>-0.030654909375151</v>
       </c>
       <c r="CI29" t="n">
-        <v>-0.00605465072505009</v>
+        <v>-0.0380409271177098</v>
       </c>
       <c r="CJ29" t="n">
-        <v>-0.0315389155627059</v>
+        <v>0.107748911873693</v>
       </c>
       <c r="CK29" t="n">
-        <v>0.110990468945771</v>
+        <v>0.180980639929731</v>
       </c>
       <c r="CL29" t="n">
-        <v>0.180550237783291</v>
+        <v>-0.284503192116555</v>
       </c>
       <c r="CM29" t="n">
-        <v>-0.0545510869767417</v>
+        <v>-0.210193350694748</v>
       </c>
       <c r="CN29" t="n">
-        <v>-0.174682215597861</v>
+        <v>0.776889399065342</v>
       </c>
       <c r="CO29" t="n">
-        <v>0.956656064744036</v>
+        <v>0.83414530913188</v>
       </c>
       <c r="CP29" t="n">
-        <v>0.861848401983317</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ29" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR29" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR29" t="b">
+        <v>0</v>
       </c>
       <c r="CS29" t="b">
         <v>0</v>
       </c>
       <c r="CT29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU29" t="b">
         <v>1</v>
       </c>
       <c r="CV29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW29" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" t="n">
         <v>0.00052311831725691</v>
@@ -9904,84 +9814,81 @@
         <v>0.00165204746502576</v>
       </c>
       <c r="BZ30" t="n">
-        <v>0</v>
+        <v>0.00115698890769021</v>
       </c>
       <c r="CA30" t="n">
-        <v>0.00115698890769021</v>
+        <v>0.00092449410967731</v>
       </c>
       <c r="CB30" t="n">
-        <v>0.00092449410967731</v>
+        <v>0.00142229586292923</v>
       </c>
       <c r="CC30" t="n">
-        <v>0.00142229586292923</v>
+        <v>0.00095312326401756</v>
       </c>
       <c r="CD30" t="n">
-        <v>0.00095312326401756</v>
+        <v>0.00121517071540236</v>
       </c>
       <c r="CE30" t="n">
-        <v>0.00121517071540236</v>
+        <v>0.00037061593635798</v>
       </c>
       <c r="CF30" t="n">
-        <v>0.00037061593635798</v>
+        <v>0.00065625305754264</v>
       </c>
       <c r="CG30" t="n">
-        <v>0.00065625305754264</v>
+        <v>0.00092037827647749</v>
       </c>
       <c r="CH30" t="n">
-        <v>0.00092037827647749</v>
+        <v>0.00154100770849541</v>
       </c>
       <c r="CI30" t="n">
-        <v>0.0261412663585962</v>
+        <v>-0.092308435447921</v>
       </c>
       <c r="CJ30" t="n">
-        <v>-0.0858179897413427</v>
+        <v>0.0978169922356168</v>
       </c>
       <c r="CK30" t="n">
-        <v>0.101098924778736</v>
+        <v>0.174022156338193</v>
       </c>
       <c r="CL30" t="n">
-        <v>0.173577713293418</v>
+        <v>0.0157539878632079</v>
       </c>
       <c r="CM30" t="n">
-        <v>0.258571161026774</v>
+        <v>-0.530440705886494</v>
       </c>
       <c r="CN30" t="n">
-        <v>-0.494406730639866</v>
+        <v>0.987479665571164</v>
       </c>
       <c r="CO30" t="n">
-        <v>0.796795912433392</v>
+        <v>0.597642179031557</v>
       </c>
       <c r="CP30" t="n">
-        <v>0.622711815918993</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ30" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR30" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR30" t="b">
+        <v>0</v>
       </c>
       <c r="CS30" t="b">
         <v>0</v>
       </c>
       <c r="CT30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU30" t="b">
         <v>1</v>
       </c>
       <c r="CV30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW30" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX30" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" t="n">
         <v>0.00346752713153151</v>
@@ -10212,78 +10119,75 @@
         <v>0.00557190554113239</v>
       </c>
       <c r="BZ31" t="n">
-        <v>0</v>
+        <v>0.00341163395857374</v>
       </c>
       <c r="CA31" t="n">
-        <v>0.00341163395857374</v>
+        <v>0.00263949767545555</v>
       </c>
       <c r="CB31" t="n">
-        <v>0.00263949767545555</v>
+        <v>0.0084162300649366</v>
       </c>
       <c r="CC31" t="n">
-        <v>0.0084162300649366</v>
+        <v>0.0102709700988161</v>
       </c>
       <c r="CD31" t="n">
-        <v>0.0102709700988161</v>
+        <v>0.00924482818776705</v>
       </c>
       <c r="CE31" t="n">
-        <v>0.00924482818776705</v>
+        <v>0.00275154255780924</v>
       </c>
       <c r="CF31" t="n">
-        <v>0.00275154255780924</v>
+        <v>0.0073261704969307</v>
       </c>
       <c r="CG31" t="n">
-        <v>0.0073261704969307</v>
+        <v>0.00796655295049383</v>
       </c>
       <c r="CH31" t="n">
-        <v>0.00796655295049383</v>
+        <v>-0.173511758194213</v>
       </c>
       <c r="CI31" t="n">
-        <v>-0.148911499544112</v>
+        <v>0.316388401989615</v>
       </c>
       <c r="CJ31" t="n">
-        <v>0.322888221532</v>
+        <v>0.11127133084955</v>
       </c>
       <c r="CK31" t="n">
-        <v>0.114497969304658</v>
+        <v>0.183604637730267</v>
       </c>
       <c r="CL31" t="n">
-        <v>0.183134755220402</v>
+        <v>-1.55935726542912</v>
       </c>
       <c r="CM31" t="n">
-        <v>-1.300560179787</v>
+        <v>1.72320484874909</v>
       </c>
       <c r="CN31" t="n">
-        <v>1.7631182084657</v>
+        <v>0.122810650108192</v>
       </c>
       <c r="CO31" t="n">
-        <v>0.197097158067191</v>
+        <v>0.0886670596423752</v>
       </c>
       <c r="CP31" t="n">
-        <v>0.0816520656027824</v>
+        <v>0.99778461469498</v>
       </c>
       <c r="CQ31" t="n">
-        <v>0.998781333283918</v>
-      </c>
-      <c r="CR31" t="n">
-        <v>0.968828178552532</v>
+        <v>0.982288047896348</v>
+      </c>
+      <c r="CR31" t="b">
+        <v>0</v>
       </c>
       <c r="CS31" t="b">
         <v>0</v>
       </c>
       <c r="CT31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU31" t="b">
         <v>1</v>
       </c>
       <c r="CV31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW31" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX31" t="b">
         <v>0</v>
       </c>
     </row>
